--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>enemyID</t>
   </si>
@@ -78,6 +78,18 @@
   </si>
   <si>
     <t>ring2ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑·咩咩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真·爱新觉萝莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBoss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,19 +416,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,95 +438,207 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
       <c r="E2">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1500</v>
+      </c>
+      <c r="E3">
+        <v>306</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+      <c r="G3">
+        <v>123</v>
+      </c>
+      <c r="H3">
+        <v>777</v>
+      </c>
+      <c r="I3">
+        <v>99</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>9999</v>
+      </c>
+      <c r="E4">
+        <v>1231</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+      <c r="G4">
+        <v>666</v>
+      </c>
+      <c r="H4">
+        <v>666</v>
+      </c>
+      <c r="I4">
+        <v>99</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>9999</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>0</v>
       </c>
     </row>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>9999</v>
       </c>
       <c r="E4">
-        <v>1231</v>
+        <v>9999</v>
       </c>
       <c r="F4">
         <v>250</v>
@@ -615,7 +615,7 @@
         <v>666</v>
       </c>
       <c r="I4">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -497,25 +497,25 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -547,28 +547,28 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E3">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>777</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -603,25 +603,25 @@
         <v>9999</v>
       </c>
       <c r="E4">
-        <v>9999</v>
+        <v>99</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="G4">
-        <v>666</v>
+        <v>99</v>
       </c>
       <c r="H4">
-        <v>666</v>
+        <v>99</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K4">
-        <v>9999</v>
+        <v>99</v>
       </c>
       <c r="L4">
         <v>0</v>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -27,9 +27,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>maxHP</t>
-  </si>
-  <si>
     <t>power</t>
   </si>
   <si>
@@ -90,6 +87,10 @@
   </si>
   <si>
     <t>isBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +420,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -438,49 +439,49 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -488,13 +489,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -541,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2500</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>25</v>
@@ -594,13 +595,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9999</v>
+        <v>255</v>
       </c>
       <c r="E4">
         <v>99</v>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>enemyID</t>
   </si>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -110,13 +126,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,9 +162,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -432,221 +470,346 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>99</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>25</v>
-      </c>
-      <c r="K3">
-        <v>25</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25</v>
+      </c>
+      <c r="H6" s="3">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3">
+        <v>25</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D7" s="3">
         <v>255</v>
       </c>
-      <c r="E4">
+      <c r="E7" s="3">
         <v>99</v>
       </c>
-      <c r="F4">
+      <c r="F7" s="3">
         <v>99</v>
       </c>
-      <c r="G4">
+      <c r="G7" s="3">
         <v>99</v>
       </c>
-      <c r="H4">
+      <c r="H7" s="3">
         <v>99</v>
       </c>
-      <c r="I4">
+      <c r="I7" s="3">
         <v>99</v>
       </c>
-      <c r="J4">
+      <c r="J7" s="3">
         <v>99</v>
       </c>
-      <c r="K4">
+      <c r="K7" s="3">
         <v>99</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
-  <si>
-    <t>enemyID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -107,6 +104,78 @@
   </si>
   <si>
     <t>BOOL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指ID1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指ID2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,12 +231,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -458,7 +524,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -470,339 +536,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>21</v>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>10</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>10</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>10</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="b">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>99</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>25</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>25</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>25</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>25</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>25</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>25</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="b">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>255</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>99</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>99</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>99</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>99</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>99</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>99</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>99</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
         <v>1</v>
       </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -67,22 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ring1ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ring2ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑·咩咩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真·爱新觉萝莉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isBoss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戒指ID1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否BOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,7 +155,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戒指ID2</t>
+    <t>暴走澪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山神咩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicIDs</t>
+  </si>
+  <si>
+    <t>itemKeys</t>
+  </si>
+  <si>
+    <t>itemValues</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4002,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -197,6 +269,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -231,14 +309,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,233 +605,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
+    <col min="3" max="4" width="8.625" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>40</v>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -758,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -782,92 +880,90 @@
         <v>10</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
+        <v>4001</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>99</v>
       </c>
-      <c r="E6" s="2">
-        <v>25</v>
-      </c>
       <c r="F6" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I6" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>255</v>
-      </c>
-      <c r="E7" s="2">
-        <v>99</v>
       </c>
       <c r="F7" s="2">
         <v>99</v>
@@ -888,23 +984,17 @@
         <v>99</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -248,6 +248,14 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +616,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -855,8 +863,8 @@
       <c r="C5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>2</v>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -887,9 +895,7 @@
       <c r="O5" s="2">
         <v>3001</v>
       </c>
-      <c r="P5" s="2">
-        <v>4001</v>
-      </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="4" t="s">
         <v>46</v>
       </c>
@@ -908,8 +914,8 @@
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>99</v>
@@ -940,7 +946,9 @@
       <c r="O6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="2">
+        <v>4001</v>
+      </c>
       <c r="Q6" s="4" t="s">
         <v>46</v>
       </c>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\殊瑞\Desktop\ChineseRoguelikeGame\Documents\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
   <si>
     <t>name</t>
   </si>
@@ -188,16 +188,284 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>红光</t>
+  </si>
+  <si>
+    <t>白民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄龟</t>
+  </si>
+  <si>
+    <t>蛊雕</t>
+  </si>
+  <si>
     <r>
-      <t>4002,</t>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>400</t>
+      <t>彘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猼訑</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬽</t>
+  </si>
+  <si>
+    <t>计蒙</t>
+  </si>
+  <si>
+    <t>肥遗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狌狌</t>
+  </si>
+  <si>
+    <t>橐靟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天狗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮蛮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魋</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓</t>
+  </si>
+  <si>
+    <t>葆江</t>
+  </si>
+  <si>
+    <t>孟极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸犍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狍鸮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九鬿</t>
+  </si>
+  <si>
+    <t>寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窫窳</t>
+  </si>
+  <si>
+    <t>䲃</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酸与</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆吾</t>
+  </si>
+  <si>
+    <t>条䗤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蠪蛭</t>
+  </si>
+  <si>
+    <t>朱獳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从从</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮯鮯之鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条䗤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>峳峳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合窳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英招</t>
+  </si>
+  <si>
+    <t>鸣蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泰逢</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骄虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化蛇</t>
+  </si>
+  <si>
+    <t>狤</t>
+  </si>
+  <si>
+    <t>钦原</t>
+  </si>
+  <si>
+    <t>三足龟</t>
+  </si>
+  <si>
+    <t>單围</t>
+  </si>
+  <si>
+    <t>白帝少昊</t>
+  </si>
+  <si>
+    <t>厌火</t>
+  </si>
+  <si>
+    <t>三首</t>
+  </si>
+  <si>
+    <t>三身</t>
+  </si>
+  <si>
+    <t>毕方鸟</t>
+  </si>
+  <si>
+    <t>文虎</t>
+  </si>
+  <si>
+    <t>魈</t>
+  </si>
+  <si>
+    <t>青帝太昊</t>
+  </si>
+  <si>
+    <t>一臂</t>
+  </si>
+  <si>
+    <t>奇肱</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
     </r>
     <r>
       <rPr>
@@ -206,64 +474,140 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>3,</t>
+      <t>RUE</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽民</t>
+  </si>
+  <si>
+    <t>灭蒙</t>
+  </si>
+  <si>
+    <t>龙鱼</t>
+  </si>
+  <si>
+    <t>西王母</t>
+  </si>
+  <si>
+    <t>祝融</t>
+  </si>
+  <si>
+    <t>共工</t>
+  </si>
+  <si>
+    <t>无启</t>
+  </si>
+  <si>
+    <t>相柳</t>
+  </si>
+  <si>
+    <t>博父</t>
+  </si>
+  <si>
+    <t>駮</t>
+  </si>
+  <si>
+    <t>罗罗</t>
+  </si>
+  <si>
+    <t>魆</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>奢比尸</t>
+  </si>
+  <si>
+    <t>天吴</t>
+  </si>
+  <si>
+    <t>黑齿</t>
+  </si>
+  <si>
+    <t>雨师</t>
+  </si>
+  <si>
+    <t>玄股</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关的强力小怪。速度比较慢但是攻击力意外地很高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在其它游戏中都显得十分强力，在本游戏中成了酱油角色？</t>
+  </si>
+  <si>
+    <t>速度快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关标准怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术好（因为雌雄同体，自行交配？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种幽灵属性的小怪，攻击力较低，但是大叔此时就是打不着，最后要靠萝莉灭掉。（物理攻击免疫）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>双人</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t>400</t>
+      <t>BOSS</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
+      <t>，作为第一关</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>BOSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>002</t>
+      <t>只是看着唬人，实力比较酱油。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -284,6 +628,29 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -317,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,6 +698,48 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -351,7 +760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,24 +1022,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="4" width="8.625" customWidth="1"/>
-    <col min="12" max="12" width="10.5" customWidth="1"/>
-    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="48" style="14" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -684,9 +1098,12 @@
       <c r="R1" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="S1" s="13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -740,9 +1157,10 @@
       <c r="R2" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="S2" s="13"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -796,9 +1214,10 @@
       <c r="R3" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -852,10 +1271,11 @@
       <c r="R4" s="3">
         <v>0</v>
       </c>
+      <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>10</v>
+      <c r="A5" s="7">
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -863,8 +1283,8 @@
       <c r="C5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>49</v>
+      <c r="D5" s="9">
+        <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -896,17 +1316,16 @@
         <v>3001</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="Q5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="1"/>
+      <c r="Q5" s="7">
+        <v>1</v>
+      </c>
+      <c r="R5" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>11</v>
+      <c r="A6" s="7">
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
@@ -914,8 +1333,8 @@
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
+      <c r="D6" s="9">
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>99</v>
@@ -943,23 +1362,22 @@
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="4" t="s">
-        <v>45</v>
+      <c r="O6" s="7">
+        <v>3002</v>
       </c>
       <c r="P6" s="2">
         <v>4001</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="1"/>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>12</v>
+      <c r="A7" s="7">
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>35</v>
@@ -997,14 +1415,1021 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="4" t="s">
-        <v>44</v>
+      <c r="P7" s="18">
+        <v>400240034004</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1">
+        <v>20</v>
+      </c>
+      <c r="L8" s="1">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="S8" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="S9" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12</v>
+      </c>
+      <c r="J10" s="7">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7">
+        <v>12</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="S10" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="S11" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>31</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="S12" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>32</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="S13" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>33</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1">
+        <v>8</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="S14" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>34</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1">
+        <v>11</v>
+      </c>
+      <c r="L15" s="1">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="S15" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="9">
+        <v>23</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>24</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="9">
+        <v>36</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="9">
+        <v>37</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>38</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="9">
+        <v>14</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="9">
+        <v>15</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="9">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="9">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="9">
+        <v>39</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="9">
+        <v>310</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>311</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>312</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
+        <v>313</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
+        <v>16</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>28</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>29</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>210</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="9">
+        <v>314</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>315</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="9">
+        <v>316</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>317</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="9">
+        <v>318</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="9">
+        <v>17</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="9">
+        <v>211</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="9">
+        <v>212</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>213</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="9">
+        <v>319</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="9">
+        <v>320</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="9">
+        <v>321</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>322</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>323</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="9">
+        <v>18</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="9">
+        <v>214</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="9">
+        <v>215</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="9">
+        <v>216</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>324</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="9">
+        <v>325</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="9">
+        <v>326</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="9">
+        <v>19</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="9">
+        <v>217</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="9">
+        <v>218</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="9">
+        <v>327</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="9">
+        <v>328</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="9">
+        <v>329</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="9">
+        <v>110</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="9">
+        <v>111</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="9">
+        <v>112</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="9">
+        <v>219</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="9">
+        <v>220</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="9">
+        <v>330</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="9">
+        <v>331</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="9">
+        <v>332</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="9">
+        <v>333</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="9">
+        <v>113</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="9">
+        <v>221</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="9">
+        <v>222</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="9">
+        <v>334</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="9">
+        <v>335</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="9">
+        <v>336</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="S1:S4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
     <t>name</t>
   </si>
@@ -221,9 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猼訑</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="7"/>
@@ -244,9 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鬽</t>
-  </si>
-  <si>
     <t>计蒙</t>
   </si>
   <si>
@@ -541,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一关的强力小怪。速度比较慢但是攻击力意外地很高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在其它游戏中都显得十分强力，在本游戏中成了酱油角色？</t>
   </si>
   <si>
@@ -557,10 +547,6 @@
   </si>
   <si>
     <t>技术好（因为雌雄同体，自行交配？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种幽灵属性的小怪，攻击力较低，但是大叔此时就是打不着，最后要靠萝莉灭掉。（物理攻击免疫）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -582,7 +568,30 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>，作为第一关</t>
+      <t>，必须在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合内同时打死，不然会满血复活。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>双人</t>
     </r>
     <r>
       <rPr>
@@ -599,8 +608,69 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>只是看着唬人，实力比较酱油。</t>
-    </r>
+      <t>，必须在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合内同时打死，不然会满血复活。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度比较慢、攻击力很高。连续4回合使用逃跑一定会成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4002,4003,4004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4006</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猼訑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -656,7 +726,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +736,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,22 +800,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1128,7 @@
   <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1036,10 +1139,10 @@
     <col min="5" max="11" width="9" style="1"/>
     <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
     <col min="13" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.75" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="48" style="14" customWidth="1"/>
+    <col min="19" max="19" width="48" style="13" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1098,8 +1201,8 @@
       <c r="R1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>117</v>
+      <c r="S1" s="17" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -1157,7 +1260,7 @@
       <c r="R2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="13"/>
+      <c r="S2" s="17"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -1214,7 +1317,7 @@
       <c r="R3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="13"/>
+      <c r="S3" s="17"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
@@ -1271,7 +1374,7 @@
       <c r="R4" s="3">
         <v>0</v>
       </c>
-      <c r="S4" s="13"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -1415,8 +1518,8 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="18">
-        <v>400240034004</v>
+      <c r="P7" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1456,8 +1559,11 @@
         <v>25</v>
       </c>
       <c r="M8" s="2"/>
+      <c r="P8" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="S8" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -1495,8 +1601,11 @@
         <v>15</v>
       </c>
       <c r="M9" s="2"/>
+      <c r="O9" s="1">
+        <v>3003</v>
+      </c>
       <c r="S9" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -1507,7 +1616,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="7">
         <v>20</v>
@@ -1534,86 +1643,92 @@
         <v>12</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="S10" s="15" t="s">
+      <c r="O10" s="1">
+        <v>3004</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4007</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18">
+        <v>22</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>15</v>
+      </c>
+      <c r="F11" s="24">
+        <v>13</v>
+      </c>
+      <c r="G11" s="21">
+        <v>20</v>
+      </c>
+      <c r="H11" s="21">
+        <v>13</v>
+      </c>
+      <c r="I11" s="21">
+        <v>15</v>
+      </c>
+      <c r="J11" s="21">
+        <v>15</v>
+      </c>
+      <c r="K11" s="21">
+        <v>12</v>
+      </c>
+      <c r="L11" s="21">
+        <v>17</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="S11" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18">
+        <v>31</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>10</v>
+      </c>
+      <c r="F12" s="21">
+        <v>10</v>
+      </c>
+      <c r="G12" s="21">
+        <v>10</v>
+      </c>
+      <c r="H12" s="21">
+        <v>10</v>
+      </c>
+      <c r="I12" s="21">
+        <v>10</v>
+      </c>
+      <c r="J12" s="21">
+        <v>10</v>
+      </c>
+      <c r="K12" s="21">
+        <v>10</v>
+      </c>
+      <c r="L12" s="21">
+        <v>10</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="S12" s="22" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>22</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1">
-        <v>12</v>
-      </c>
-      <c r="L11" s="1">
-        <v>17</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="S11" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>31</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
-        <v>10</v>
-      </c>
-      <c r="L12" s="1">
-        <v>10</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="S12" s="17" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -1621,7 +1736,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2" t="b">
         <v>0</v>
@@ -1651,55 +1766,58 @@
         <v>10</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="S13" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
+      <c r="O13" s="1">
+        <v>3005</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="18">
         <v>33</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="21">
         <v>10</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="21">
         <v>9</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="21">
         <v>10</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="21">
         <v>8</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="21">
         <v>15</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="21">
         <v>10</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="21">
         <v>8</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="S14" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M14" s="20"/>
+      <c r="S14" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>34</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="b">
         <v>0</v>
@@ -1729,7 +1847,10 @@
         <v>10</v>
       </c>
       <c r="M15" s="2"/>
-      <c r="S15" s="16" t="s">
+      <c r="P15" s="1">
+        <v>4008</v>
+      </c>
+      <c r="S15" s="15" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1738,689 +1859,707 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
         <v>23</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18">
+        <v>35</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
-        <v>24</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
-        <v>35</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
         <v>36</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
         <v>37</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+    <row r="22" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18">
         <v>38</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>14</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
         <v>15</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
         <v>26</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+    <row r="27" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18">
         <v>27</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
         <v>39</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
         <v>310</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18">
+        <v>311</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="18">
+        <v>312</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>311</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="9">
-        <v>312</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C31" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>313</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>16</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
         <v>28</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="18">
+        <v>29</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35" s="26"/>
+    </row>
+    <row r="36" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="18">
+        <v>210</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>29</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
-        <v>210</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36" s="26"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
         <v>314</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C37" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
+    <row r="38" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="18">
         <v>315</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38" s="26"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
         <v>316</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
+    <row r="40" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="18">
         <v>317</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B40" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S40" s="26"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
         <v>318</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C41" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
         <v>17</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
         <v>211</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
         <v>212</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
+    <row r="45" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="18">
         <v>213</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45" s="26"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
         <v>319</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
         <v>320</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
         <v>321</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="18">
+        <v>322</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S49" s="26"/>
+    </row>
+    <row r="50" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="18">
+        <v>323</v>
+      </c>
+      <c r="B50" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="9">
-        <v>322</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="9">
-        <v>323</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C50" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S50" s="26"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
         <v>18</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
         <v>214</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
         <v>215</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
         <v>216</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="9">
+    <row r="55" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="18">
         <v>324</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B55" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55" s="26"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
         <v>325</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C56" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
         <v>326</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
         <v>19</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="18">
         <v>217</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B59" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59" s="26"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
         <v>218</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C60" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
         <v>327</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C61" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
         <v>328</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C62" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="9">
+    <row r="63" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="18">
         <v>329</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B63" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S63" s="26"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
         <v>110</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C64" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
         <v>111</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C65" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
         <v>112</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C66" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
         <v>219</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C67" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
         <v>220</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C68" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
         <v>330</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="18">
+        <v>331</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S70" s="26"/>
+    </row>
+    <row r="71" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="18">
+        <v>332</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="9">
-        <v>331</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="9">
-        <v>332</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C71" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71" s="26"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
         <v>333</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C72" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" s="9">
         <v>113</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C73" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" s="9">
         <v>221</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C74" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="9">
         <v>222</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C75" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76" s="9">
         <v>334</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C76" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77" s="9">
         <v>335</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C77" s="4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78" s="9">
         <v>336</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C78" s="4" t="b">
         <v>0</v>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -198,49 +198,6 @@
     <t>玄龟</t>
   </si>
   <si>
-    <t>蛊雕</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>彘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计蒙</t>
   </si>
   <si>
@@ -248,55 +205,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狌狌</t>
-  </si>
-  <si>
-    <t>橐靟</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天狗</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蛮蛮</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鼓</t>
   </si>
   <si>
@@ -311,21 +222,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>狍鸮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>九鬿</t>
   </si>
   <si>
     <t>寓</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窫窳</t>
-  </si>
-  <si>
-    <t>䲃</t>
   </si>
   <si>
     <r>
@@ -355,26 +256,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蠪蛭</t>
-  </si>
-  <si>
-    <t>朱獳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从从</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鮯鮯之鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>条䗤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>峳峳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>骄虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>化蛇</t>
   </si>
   <si>
@@ -422,12 +304,6 @@
     <t>钦原</t>
   </si>
   <si>
-    <t>三足龟</t>
-  </si>
-  <si>
-    <t>單围</t>
-  </si>
-  <si>
     <t>白帝少昊</t>
   </si>
   <si>
@@ -440,9 +316,6 @@
     <t>三身</t>
   </si>
   <si>
-    <t>毕方鸟</t>
-  </si>
-  <si>
     <t>文虎</t>
   </si>
   <si>
@@ -450,9 +323,6 @@
   </si>
   <si>
     <t>青帝太昊</t>
-  </si>
-  <si>
-    <t>一臂</t>
   </si>
   <si>
     <t>奇肱</t>
@@ -479,9 +349,6 @@
     <t>灭蒙</t>
   </si>
   <si>
-    <t>龙鱼</t>
-  </si>
-  <si>
     <t>西王母</t>
   </si>
   <si>
@@ -500,12 +367,6 @@
     <t>博父</t>
   </si>
   <si>
-    <t>駮</t>
-  </si>
-  <si>
-    <t>罗罗</t>
-  </si>
-  <si>
     <t>魆</t>
   </si>
   <si>
@@ -535,18 +396,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在其它游戏中都显得十分强力，在本游戏中成了酱油角色？</t>
-  </si>
-  <si>
     <t>速度快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一关标准怪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术好（因为雌雄同体，自行交配？）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -726,7 +576,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,12 +586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,36 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1202,7 +1016,7 @@
         <v>43</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -1519,7 +1333,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="4" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1534,6 +1348,9 @@
       <c r="C8" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
@@ -1560,10 +1377,10 @@
       </c>
       <c r="M8" s="2"/>
       <c r="P8" s="4" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -1576,6 +1393,9 @@
       <c r="C9" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
       <c r="E9" s="1">
         <v>20</v>
       </c>
@@ -1605,7 +1425,7 @@
         <v>3003</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -1616,7 +1436,10 @@
         <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
       </c>
       <c r="E10" s="7">
         <v>20</v>
@@ -1650,213 +1473,135 @@
         <v>4007</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18">
-        <v>22</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="24">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1">
         <v>15</v>
       </c>
-      <c r="F11" s="24">
-        <v>13</v>
-      </c>
-      <c r="G11" s="21">
-        <v>20</v>
-      </c>
-      <c r="H11" s="21">
-        <v>13</v>
-      </c>
-      <c r="I11" s="21">
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="O11" s="1">
+        <v>3005</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>34</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1">
         <v>15</v>
       </c>
-      <c r="J11" s="21">
-        <v>15</v>
-      </c>
-      <c r="K11" s="21">
-        <v>12</v>
-      </c>
-      <c r="L11" s="21">
-        <v>17</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="S11" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18">
-        <v>31</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="J12" s="1">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1">
+        <v>11</v>
+      </c>
+      <c r="L12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="21">
-        <v>10</v>
-      </c>
-      <c r="G12" s="21">
-        <v>10</v>
-      </c>
-      <c r="H12" s="21">
-        <v>10</v>
-      </c>
-      <c r="I12" s="21">
-        <v>10</v>
-      </c>
-      <c r="J12" s="21">
-        <v>10</v>
-      </c>
-      <c r="K12" s="21">
-        <v>10</v>
-      </c>
-      <c r="L12" s="21">
-        <v>10</v>
-      </c>
-      <c r="M12" s="20"/>
-      <c r="S12" s="22" t="s">
-        <v>118</v>
+      <c r="M12" s="2"/>
+      <c r="P12" s="1">
+        <v>4008</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1">
-        <v>9</v>
-      </c>
-      <c r="I13" s="1">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1">
-        <v>9</v>
-      </c>
-      <c r="K13" s="1">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1">
-        <v>10</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="O13" s="1">
-        <v>3005</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18">
-        <v>33</v>
-      </c>
-      <c r="B14" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>37</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>10</v>
-      </c>
-      <c r="F14" s="21">
-        <v>10</v>
-      </c>
-      <c r="G14" s="21">
-        <v>9</v>
-      </c>
-      <c r="H14" s="21">
-        <v>10</v>
-      </c>
-      <c r="I14" s="21">
-        <v>8</v>
-      </c>
-      <c r="J14" s="21">
-        <v>15</v>
-      </c>
-      <c r="K14" s="21">
-        <v>10</v>
-      </c>
-      <c r="L14" s="21">
-        <v>8</v>
-      </c>
-      <c r="M14" s="20"/>
-      <c r="S14" s="22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>34</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="C15" s="2" t="b">
         <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1">
-        <v>12</v>
-      </c>
-      <c r="H15" s="1">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1">
-        <v>9</v>
-      </c>
-      <c r="K15" s="1">
-        <v>11</v>
-      </c>
-      <c r="L15" s="1">
-        <v>10</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="P15" s="1">
-        <v>4008</v>
-      </c>
-      <c r="S15" s="15" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>50</v>
@@ -1865,55 +1610,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C17" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18">
-        <v>24</v>
-      </c>
-      <c r="B18" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="9">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="18">
-        <v>35</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="C18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="9">
+        <v>26</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S19" s="26"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
-        <v>36</v>
-      </c>
-      <c r="B20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
-        <v>37</v>
+        <v>310</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>55</v>
@@ -1922,21 +1665,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18">
-        <v>38</v>
-      </c>
-      <c r="B22" s="19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="9">
+        <v>313</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S22" s="26"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>57</v>
@@ -1945,20 +1687,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>59</v>
@@ -1967,9 +1709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>60</v>
@@ -1978,32 +1720,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18">
-        <v>27</v>
-      </c>
-      <c r="B27" s="23" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="9">
+        <v>318</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S27" s="26"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
-        <v>39</v>
-      </c>
-      <c r="B28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>63</v>
@@ -2012,90 +1753,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18">
-        <v>311</v>
-      </c>
-      <c r="B30" s="23" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="9">
+        <v>212</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18">
-        <v>312</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="C30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="9">
+        <v>319</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S31" s="26"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
-        <v>313</v>
-      </c>
-      <c r="B32" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
-        <v>16</v>
+        <v>321</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C34" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18">
-        <v>29</v>
-      </c>
-      <c r="B35" s="23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>214</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S35" s="26"/>
-    </row>
-    <row r="36" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18">
-        <v>210</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="C35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="9">
+        <v>215</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S36" s="26"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>71</v>
@@ -2104,21 +1841,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18">
-        <v>315</v>
-      </c>
-      <c r="B38" s="23" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="9">
+        <v>325</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S38" s="26"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>73</v>
@@ -2127,441 +1863,190 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18">
-        <v>317</v>
-      </c>
-      <c r="B40" s="23" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="9">
+        <v>19</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S40" s="26"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C40" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C41" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+      <c r="C42" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
-        <v>211</v>
+        <v>328</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+        <v>78</v>
+      </c>
+      <c r="C43" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
-        <v>212</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18">
-        <v>213</v>
-      </c>
-      <c r="B45" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S45" s="26"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C44" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="9">
+        <v>111</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
-        <v>319</v>
+        <v>112</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="C46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+      <c r="C47" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="18">
-        <v>322</v>
-      </c>
-      <c r="B49" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S49" s="26"/>
-    </row>
-    <row r="50" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="18">
-        <v>323</v>
-      </c>
-      <c r="B50" s="23" t="s">
+      <c r="C48" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="9">
+        <v>330</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S50" s="26"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C49" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="9">
+        <v>333</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="C51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="C52" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="C53" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
-        <v>216</v>
+        <v>334</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C54" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="18">
-        <v>324</v>
-      </c>
-      <c r="B55" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S55" s="26"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C54" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="9">
+        <v>335</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A57" s="9">
-        <v>326</v>
-      </c>
-      <c r="B57" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A58" s="9">
-        <v>19</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="18">
-        <v>217</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C59" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S59" s="26"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A60" s="9">
-        <v>218</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A61" s="9">
-        <v>327</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A62" s="9">
-        <v>328</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="18">
-        <v>329</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S63" s="26"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A64" s="9">
-        <v>110</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A65" s="9">
-        <v>111</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A66" s="9">
-        <v>112</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A67" s="9">
-        <v>219</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A68" s="9">
-        <v>220</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A69" s="9">
-        <v>330</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="18">
-        <v>331</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S70" s="26"/>
-    </row>
-    <row r="71" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="18">
-        <v>332</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C71" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="S71" s="26"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A72" s="9">
-        <v>333</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A73" s="9">
-        <v>113</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A74" s="9">
-        <v>221</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A75" s="9">
-        <v>222</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C75" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A76" s="9">
-        <v>334</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A77" s="9">
-        <v>335</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A78" s="9">
-        <v>336</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="4" t="b">
+      <c r="C56" s="4" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,6 +656,19 @@
   <si>
     <t>测试数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BATTLETYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Magical</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1087,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1096,7 @@
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="9" style="1"/>
     <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1"/>
@@ -1121,10 +1130,10 @@
         <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>21</v>
@@ -1222,7 +1231,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
@@ -1275,8 +1284,8 @@
       <c r="D4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
+      <c r="E4" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
@@ -1303,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1312,104 +1321,104 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="J6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="N6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1417,49 +1426,49 @@
         <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -1470,13 +1479,13 @@
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
-        <v>2</v>
+      <c r="E8" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="F8" s="2">
         <v>99</v>
@@ -1488,7 +1497,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J8" s="2">
         <v>50</v>
@@ -1509,7 +1518,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -1520,13 +1529,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
+      <c r="E9" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="F9" s="2">
         <v>255</v>
@@ -1554,12 +1563,12 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -1592,8 +1601,8 @@
       <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="F11" s="1">
         <v>20</v>
@@ -1637,8 +1646,8 @@
       <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
+      <c r="E12" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F12" s="1">
         <v>20</v>
@@ -1682,8 +1691,8 @@
       <c r="D13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="1">
-        <v>2</v>
+      <c r="E13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F13" s="7">
         <v>20</v>
@@ -1730,8 +1739,8 @@
       <c r="D14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
+      <c r="E14" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F14" s="1">
         <v>8</v>
@@ -1775,8 +1784,8 @@
       <c r="D15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="E15" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="F15" s="1">
         <v>8</v>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -669,6 +669,18 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1087,7 +1099,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1487,8 +1499,8 @@
       <c r="E8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="2">
-        <v>99</v>
+      <c r="F8" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="G8" s="2">
         <v>50</v>
@@ -1515,8 +1527,12 @@
         <v>3002</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="P8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
       <c r="R8" s="4" t="s">
         <v>119</v>
       </c>
@@ -1534,11 +1550,11 @@
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="2">
-        <v>255</v>
+      <c r="E9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="G9" s="2">
         <v>99</v>
@@ -1565,8 +1581,12 @@
       <c r="O9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="R9" s="4" t="s">
         <v>119</v>
       </c>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="145">
   <si>
     <t>name</t>
   </si>
@@ -680,6 +680,94 @@
   </si>
   <si>
     <t>255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bluntMulti</t>
+  </si>
+  <si>
+    <t>slashMulti</t>
+  </si>
+  <si>
+    <t>thrustMulti</t>
+  </si>
+  <si>
+    <t>neutralMulti</t>
+  </si>
+  <si>
+    <t>yinMulti</t>
+  </si>
+  <si>
+    <t>yangMulti</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩击弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺击弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钝击弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵法术弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴法术弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳法术弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1114,12 +1202,12 @@
     <col min="13" max="14" width="9" style="1"/>
     <col min="15" max="15" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="48" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="17" max="23" width="12.375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="48" style="13" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
@@ -1172,10 +1260,28 @@
         <v>36</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -1227,9 +1333,27 @@
       <c r="Q2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1281,9 +1405,27 @@
       <c r="Q3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>0</v>
       </c>
@@ -1329,9 +1471,27 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>98</v>
       </c>
@@ -1379,11 +1539,21 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="2"/>
+      <c r="S5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>99</v>
       </c>
@@ -1429,11 +1599,19 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>103</v>
       </c>
@@ -1479,11 +1657,19 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="7">
+        <v>2</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>104</v>
       </c>
@@ -1533,11 +1719,17 @@
       <c r="Q8" s="7">
         <v>1</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>105</v>
       </c>
@@ -1587,11 +1779,17 @@
       <c r="Q9" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
@@ -1609,8 +1807,14 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>11</v>
       </c>
@@ -1651,11 +1855,11 @@
       <c r="O11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="X11" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>12</v>
       </c>
@@ -1696,11 +1900,11 @@
       <c r="N12" s="1">
         <v>3003</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="X12" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <v>21</v>
       </c>
@@ -1744,11 +1948,11 @@
       <c r="O13" s="1">
         <v>4007</v>
       </c>
-      <c r="R13" s="14" t="s">
+      <c r="X13" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <v>32</v>
       </c>
@@ -1789,11 +1993,11 @@
       <c r="N14" s="1">
         <v>3005</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="X14" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>34</v>
       </c>
@@ -1834,11 +2038,11 @@
       <c r="O15" s="1">
         <v>4008</v>
       </c>
-      <c r="R15" s="15" t="s">
+      <c r="X15" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="9">
         <v>13</v>
       </c>

--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChineseRoguelikeGame\Documents\ExcelData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
+    <sheet name="AI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="169">
   <si>
     <t>怪物ID</t>
   </si>
@@ -194,6 +200,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3</t>
@@ -202,6 +209,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>001</t>
@@ -212,6 +220,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4</t>
@@ -220,6 +229,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>001</t>
@@ -230,6 +240,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1.</t>
@@ -238,6 +249,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -248,6 +260,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.</t>
@@ -256,6 +269,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -278,6 +292,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -286,6 +301,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -302,6 +318,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -310,6 +327,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>220</t>
@@ -329,6 +347,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
@@ -337,6 +356,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>010,2110,2210</t>
@@ -359,6 +379,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>5</t>
@@ -367,6 +388,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0</t>
@@ -392,6 +414,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4005</t>
@@ -400,6 +423,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -408,6 +432,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>4006</t>
@@ -421,6 +446,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>双人</t>
@@ -429,7 +455,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>BOSS</t>
     </r>
@@ -437,6 +463,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，必须在</t>
@@ -445,7 +472,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -453,6 +480,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回合内同时打死，不然会满血复活。</t>
@@ -514,7 +542,7 @@
       <rPr>
         <sz val="7"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -522,6 +550,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>酸与</t>
@@ -550,7 +579,7 @@
       <rPr>
         <sz val="7"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -558,6 +587,7 @@
       <rPr>
         <sz val="10.5"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>泰逢</t>
@@ -598,6 +628,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>T</t>
@@ -606,6 +637,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>RUE</t>
@@ -659,18 +691,131 @@
   <si>
     <t>玄股</t>
   </si>
+  <si>
+    <t>AI编号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>进攻基础频率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御基础频率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具基础频率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略基础频率</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动逃跑所需血量百分比</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用守护</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackFrequency</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>defenceFrequency</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemFrequency</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategyFrequency</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>escapeThreshold</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>useGuard</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出型AI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克型AI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略型AI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>无脑型AI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆小型AI</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>aiID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -680,187 +825,70 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="7"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,192 +903,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1068,255 +916,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1368,58 +977,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1680,31 +1258,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:W59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
-    <col min="6" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="10.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="26.375" style="2" customWidth="1"/>
-    <col min="16" max="22" width="12.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="48" style="3" customWidth="1"/>
-    <col min="24" max="16383" width="9" style="2"/>
+    <col min="5" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="10.5" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="26.375" style="2" customWidth="1"/>
+    <col min="17" max="23" width="12.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="48" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1721,61 +1298,64 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -1792,59 +1372,62 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="5"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1861,7 +1444,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>45</v>
@@ -1888,13 +1471,13 @@
         <v>45</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>49</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>50</v>
@@ -1911,9 +1494,12 @@
       <c r="V3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="W3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="5"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -1929,8 +1515,8 @@
       <c r="E4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="5">
-        <v>0</v>
+      <c r="F4" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -1953,14 +1539,14 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q4" s="5"/>
       <c r="R4" s="5" t="s">
         <v>52</v>
       </c>
@@ -1976,9 +1562,12 @@
       <c r="V4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="W4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>55</v>
       </c>
@@ -1995,7 +1584,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>57</v>
@@ -2019,29 +1608,32 @@
         <v>57</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7"/>
+      <c r="S5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="7"/>
+      <c r="X5" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -2058,47 +1650,50 @@
         <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>66</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>67</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>68</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="7"/>
+      <c r="X6" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>103</v>
       </c>
@@ -2114,50 +1709,53 @@
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>67</v>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>68</v>
       </c>
       <c r="M7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7"/>
+      <c r="P7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="R7" s="8">
         <v>2</v>
       </c>
-      <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="8"/>
+      <c r="X7" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>104</v>
       </c>
@@ -2173,20 +1771,20 @@
       <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G8" s="7">
-        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>50</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="7">
+        <v>50</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="J8" s="7">
-        <v>50</v>
       </c>
       <c r="K8" s="7">
         <v>50</v>
@@ -2197,26 +1795,29 @@
       <c r="M8" s="7">
         <v>50</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
+        <v>50</v>
+      </c>
+      <c r="O8" s="8">
         <v>3002</v>
-      </c>
-      <c r="O8" s="8">
-        <v>1</v>
       </c>
       <c r="P8" s="8">
         <v>1</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="8"/>
+      <c r="X8" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>105</v>
       </c>
@@ -2232,11 +1833,11 @@
       <c r="E9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G9" s="7">
-        <v>99</v>
       </c>
       <c r="H9" s="7">
         <v>99</v>
@@ -2256,24 +1857,27 @@
       <c r="M9" s="7">
         <v>99</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="6" t="s">
+      <c r="N9" s="7">
+        <v>99</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="6" t="s">
+      <c r="W9" s="7"/>
+      <c r="X9" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -2296,8 +1900,9 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="W10" s="7"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>11</v>
       </c>
@@ -2311,41 +1916,44 @@
       <c r="E11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="2">
         <v>20</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>25</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>15</v>
-      </c>
-      <c r="I11" s="2">
-        <v>20</v>
       </c>
       <c r="J11" s="2">
         <v>20</v>
       </c>
       <c r="K11" s="2">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2">
         <v>15</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>25</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>20</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="X11" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2359,38 +1967,39 @@
       <c r="E12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6"/>
+      <c r="G12" s="2">
         <v>20</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>15</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>25</v>
-      </c>
-      <c r="I12" s="2">
-        <v>20</v>
       </c>
       <c r="J12" s="2">
         <v>20</v>
       </c>
       <c r="K12" s="2">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2">
         <v>25</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>15</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>20</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>3003</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="X12" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>21</v>
       </c>
@@ -2404,44 +2013,45 @@
       <c r="E13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6"/>
+      <c r="G13" s="8">
         <v>20</v>
       </c>
-      <c r="G13" s="8">
+      <c r="H13" s="8">
         <v>18</v>
       </c>
-      <c r="H13" s="8">
+      <c r="I13" s="8">
         <v>11</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>14</v>
       </c>
-      <c r="J13" s="8">
+      <c r="K13" s="8">
         <v>18</v>
-      </c>
-      <c r="K13" s="8">
-        <v>12</v>
       </c>
       <c r="L13" s="8">
         <v>12</v>
       </c>
       <c r="M13" s="8">
+        <v>12</v>
+      </c>
+      <c r="N13" s="8">
         <v>15</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>3004</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>4007</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>1</v>
       </c>
-      <c r="W13" s="14" t="s">
+      <c r="X13" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>32</v>
       </c>
@@ -2455,38 +2065,39 @@
       <c r="E14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="6"/>
+      <c r="G14" s="2">
         <v>8</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>12</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>15</v>
-      </c>
-      <c r="I14" s="2">
-        <v>9</v>
       </c>
       <c r="J14" s="2">
         <v>9</v>
       </c>
       <c r="K14" s="2">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2">
         <v>8</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>9</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>3005</v>
       </c>
-      <c r="W14" s="15" t="s">
+      <c r="X14" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" ht="16.5" customHeight="1" spans="1:23">
+    <row r="15" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>34</v>
       </c>
@@ -2500,41 +2111,42 @@
       <c r="E15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1"/>
+      <c r="G15" s="2">
         <v>8</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>7</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>12</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>9</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>8</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>15</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>10</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>11</v>
       </c>
-      <c r="O15" s="2">
+      <c r="P15" s="2">
         <v>4008</v>
       </c>
-      <c r="P15" s="2">
+      <c r="Q15" s="2">
         <v>1</v>
       </c>
-      <c r="W15" s="16" t="s">
+      <c r="X15" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2546,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -2558,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -2570,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -2582,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -2594,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -2606,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>26</v>
       </c>
@@ -2618,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>39</v>
       </c>
@@ -2630,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>310</v>
       </c>
@@ -2642,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>313</v>
       </c>
@@ -2654,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>16</v>
       </c>
@@ -2666,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -2678,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>314</v>
       </c>
@@ -2690,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>316</v>
       </c>
@@ -2702,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>318</v>
       </c>
@@ -2714,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>17</v>
       </c>
@@ -2726,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>211</v>
       </c>
@@ -2738,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>212</v>
       </c>
@@ -2750,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>319</v>
       </c>
@@ -2762,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>320</v>
       </c>
@@ -2774,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>321</v>
       </c>
@@ -2786,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>18</v>
       </c>
@@ -2798,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>214</v>
       </c>
@@ -2810,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>215</v>
       </c>
@@ -2822,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>216</v>
       </c>
@@ -2834,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>325</v>
       </c>
@@ -2846,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>326</v>
       </c>
@@ -2858,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>19</v>
       </c>
@@ -2870,7 +2482,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>218</v>
       </c>
@@ -2882,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>327</v>
       </c>
@@ -2894,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>328</v>
       </c>
@@ -2906,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>110</v>
       </c>
@@ -2918,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>111</v>
       </c>
@@ -2930,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>112</v>
       </c>
@@ -2942,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>219</v>
       </c>
@@ -2954,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>220</v>
       </c>
@@ -2966,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>330</v>
       </c>
@@ -2978,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>333</v>
       </c>
@@ -2990,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>113</v>
       </c>
@@ -3002,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>221</v>
       </c>
@@ -3014,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>222</v>
       </c>
@@ -3026,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>334</v>
       </c>
@@ -3038,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>335</v>
       </c>
@@ -3050,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>336</v>
       </c>
@@ -3063,8 +2675,269 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="17">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="18">
+        <v>50</v>
+      </c>
+      <c r="D5" s="18">
+        <v>30</v>
+      </c>
+      <c r="E5" s="18">
+        <v>15</v>
+      </c>
+      <c r="F5" s="18">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18">
+        <v>20</v>
+      </c>
+      <c r="H5" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="18">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="18">
+        <v>30</v>
+      </c>
+      <c r="D6" s="18">
+        <v>50</v>
+      </c>
+      <c r="E6" s="18">
+        <v>15</v>
+      </c>
+      <c r="F6" s="18">
+        <v>5</v>
+      </c>
+      <c r="G6" s="18">
+        <v>20</v>
+      </c>
+      <c r="H6" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="18">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="18">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18">
+        <v>30</v>
+      </c>
+      <c r="F7" s="18">
+        <v>30</v>
+      </c>
+      <c r="G7" s="18">
+        <v>20</v>
+      </c>
+      <c r="H7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="18">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="18">
+        <v>70</v>
+      </c>
+      <c r="D8" s="18">
+        <v>10</v>
+      </c>
+      <c r="E8" s="18">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="18">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="18">
+        <v>20</v>
+      </c>
+      <c r="D9" s="18">
+        <v>60</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18">
+        <v>10</v>
+      </c>
+      <c r="G9" s="18">
+        <v>50</v>
+      </c>
+      <c r="H9" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documents/ExcelData/EnemyData.xlsx
+++ b/Documents/ExcelData/EnemyData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="9825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -715,14 +715,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>主动逃跑所需血量百分比</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否使用守护</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>attackFrequency</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -743,18 +735,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>useGuard</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>BOOL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -809,6 +793,22 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用守护时生命不低于</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardThreshold</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用逃跑时生命不高于</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1259,9 +1259,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD59"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1298,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>5</v>
@@ -1372,7 +1372,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
@@ -1444,7 +1444,7 @@
         <v>48</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>45</v>
@@ -1516,7 +1516,7 @@
         <v>53</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>57</v>
@@ -1650,7 +1650,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>66</v>
@@ -1834,7 +1834,7 @@
         <v>53</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>81</v>
@@ -1917,7 +1917,7 @@
         <v>72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
@@ -2686,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2698,8 +2698,8 @@
     <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -2722,10 +2722,10 @@
         <v>144</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2736,22 +2736,22 @@
         <v>24</v>
       </c>
       <c r="C2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>151</v>
-      </c>
       <c r="H2" s="17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2762,22 +2762,22 @@
         <v>46</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" s="17">
         <v>0</v>
@@ -2802,7 +2802,7 @@
       <c r="G4" s="17">
         <v>0</v>
       </c>
-      <c r="H4" s="17" t="b">
+      <c r="H4" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C5" s="18">
         <v>50</v>
@@ -2828,8 +2828,8 @@
       <c r="G5" s="18">
         <v>20</v>
       </c>
-      <c r="H5" s="18" t="b">
-        <v>0</v>
+      <c r="H5" s="18">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -2837,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C6" s="18">
         <v>30</v>
@@ -2854,8 +2854,8 @@
       <c r="G6" s="18">
         <v>20</v>
       </c>
-      <c r="H6" s="18" t="b">
-        <v>1</v>
+      <c r="H6" s="18">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -2863,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="18">
         <v>20</v>
@@ -2880,8 +2880,8 @@
       <c r="G7" s="18">
         <v>20</v>
       </c>
-      <c r="H7" s="18" t="b">
-        <v>0</v>
+      <c r="H7" s="18">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -2889,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="18">
         <v>70</v>
@@ -2906,8 +2906,8 @@
       <c r="G8" s="18">
         <v>0</v>
       </c>
-      <c r="H8" s="18" t="b">
-        <v>0</v>
+      <c r="H8" s="18">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -2915,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C9" s="18">
         <v>20</v>
@@ -2932,12 +2932,13 @@
       <c r="G9" s="18">
         <v>50</v>
       </c>
-      <c r="H9" s="18" t="b">
-        <v>0</v>
+      <c r="H9" s="18">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>